--- a/6544.xlsx
+++ b/6544.xlsx
@@ -125,11 +125,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -158,7 +154,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -174,79 +170,68 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0"/>
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-      <c r="H1" s="0"/>
-      <c r="I1" s="0"/>
-      <c r="J1" s="0"/>
-    </row>
-    <row r="2" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="0" t="n">
         <v>5412558</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="J2" s="0" t="n">
         <v>997621000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="0" t="n">
         <v>5412558</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="J3" s="0" t="n">
         <v>997621000</v>
       </c>
     </row>
